--- a/power_comp_1_row_40_5_col_2.xlsx
+++ b/power_comp_1_row_40_5_col_2.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2023 -0.0233</t>
+    <t xml:space="preserve">0.2016 -0.0233</t>
   </si>
   <si>
     <t xml:space="preserve">&lt; -0.0825</t>
@@ -71,46 +71,46 @@
     <t xml:space="preserve">&lt; -0.0081</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt; -0.0592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6828 0.0152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4464 0</t>
+    <t xml:space="preserve">&lt; -0.0591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6838 0.0152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4463 0</t>
   </si>
   <si>
     <t xml:space="preserve">=</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9802 0.0744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6092 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4852 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5144 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3211 0</t>
+    <t xml:space="preserve">0.9802 0.0743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6094 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4851 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5143 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3206 0</t>
   </si>
   <si>
     <t xml:space="preserve">0.2517 0</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt; -0.0744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6587 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6802 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.709 0</t>
+    <t xml:space="preserve">&lt; -0.0743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6592 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.681 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7089 0</t>
   </si>
 </sst>
 </file>
